--- a/biology/Botanique/Mitriostigma/Mitriostigma.xlsx
+++ b/biology/Botanique/Mitriostigma/Mitriostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitriostigma est un genre de plantes à fleurs de la famille des Rubiaceae qui comprend 7 espèces décrites dont cinq seulement ont été acceptées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitriostigma est un genre de plantes à fleurs de la famille des Rubiaceae qui comprend 7 espèces décrites dont cinq seulement ont été acceptées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Christian Ferdinand Friedrich Hochstetter et publié dans Flora 25: 235. 1842[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Christian Ferdinand Friedrich Hochstetter et publié dans Flora 25: 235. 1842.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cinq espèces sont originaires d'Afrique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les cinq espèces sont originaires d'Afrique.
 Mitriostigma axillare Hochst.	(1842).
 Mitriostigma barteri Hook.f. ex Hiern (1877).
 Mitriostigma greenwayi Bridson	(1979).
